--- a/Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BB5C9-0C02-4FB2-9CBB-572432B8663C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPYY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48910300</v>
+        <v>55957000</v>
       </c>
       <c r="E8" s="3">
-        <v>40718300</v>
+        <v>46751100</v>
       </c>
       <c r="F8" s="3">
-        <v>46643700</v>
+        <v>38920700</v>
       </c>
       <c r="G8" s="3">
-        <v>53809800</v>
+        <v>44584500</v>
       </c>
       <c r="H8" s="3">
-        <v>54997700</v>
+        <v>51434300</v>
       </c>
       <c r="I8" s="3">
-        <v>68016400</v>
+        <v>52569700</v>
       </c>
       <c r="J8" s="3">
+        <v>65013700</v>
+      </c>
+      <c r="K8" s="3">
         <v>61785800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35267100</v>
+        <v>43381700</v>
       </c>
       <c r="E9" s="3">
-        <v>27568100</v>
+        <v>34654900</v>
       </c>
       <c r="F9" s="3">
-        <v>39185300</v>
+        <v>26351100</v>
       </c>
       <c r="G9" s="3">
-        <v>48707200</v>
+        <v>37455400</v>
       </c>
       <c r="H9" s="3">
-        <v>49116900</v>
+        <v>46557000</v>
       </c>
       <c r="I9" s="3">
-        <v>51792000</v>
+        <v>46948500</v>
       </c>
       <c r="J9" s="3">
+        <v>49505600</v>
+      </c>
+      <c r="K9" s="3">
         <v>46491100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13643200</v>
+        <v>12575300</v>
       </c>
       <c r="E10" s="3">
-        <v>13150200</v>
+        <v>12096200</v>
       </c>
       <c r="F10" s="3">
-        <v>7458400</v>
+        <v>12569700</v>
       </c>
       <c r="G10" s="3">
-        <v>5102600</v>
+        <v>7129100</v>
       </c>
       <c r="H10" s="3">
-        <v>5880800</v>
+        <v>4877300</v>
       </c>
       <c r="I10" s="3">
-        <v>16224400</v>
+        <v>5621200</v>
       </c>
       <c r="J10" s="3">
+        <v>15508100</v>
+      </c>
+      <c r="K10" s="3">
         <v>15294700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,35 +848,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>768800</v>
+        <v>589000</v>
       </c>
       <c r="E12" s="3">
-        <v>395600</v>
+        <v>734900</v>
       </c>
       <c r="F12" s="3">
-        <v>1848800</v>
+        <v>378100</v>
       </c>
       <c r="G12" s="3">
-        <v>467200</v>
+        <v>1767100</v>
       </c>
       <c r="H12" s="3">
-        <v>197200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>446600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>188500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +905,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-501200</v>
+        <v>1162400</v>
       </c>
       <c r="E14" s="3">
-        <v>-1014200</v>
+        <v>-493700</v>
       </c>
       <c r="F14" s="3">
-        <v>2649300</v>
+        <v>-969400</v>
       </c>
       <c r="G14" s="3">
-        <v>-115000</v>
+        <v>2532300</v>
       </c>
       <c r="H14" s="3">
-        <v>18800</v>
+        <v>-110000</v>
       </c>
       <c r="I14" s="3">
-        <v>49300</v>
+        <v>18000</v>
       </c>
       <c r="J14" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K14" s="3">
         <v>212500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2608200</v>
+        <v>2146400</v>
       </c>
       <c r="E15" s="3">
-        <v>2685700</v>
+        <v>2493100</v>
       </c>
       <c r="F15" s="3">
-        <v>2736200</v>
+        <v>2567100</v>
       </c>
       <c r="G15" s="3">
-        <v>1641000</v>
+        <v>2615400</v>
       </c>
       <c r="H15" s="3">
-        <v>1587000</v>
+        <v>1568500</v>
       </c>
       <c r="I15" s="3">
-        <v>2933400</v>
+        <v>1516900</v>
       </c>
       <c r="J15" s="3">
+        <v>2803900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2428600</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45653000</v>
+        <v>53619900</v>
       </c>
       <c r="E17" s="3">
-        <v>38418800</v>
+        <v>43623000</v>
       </c>
       <c r="F17" s="3">
-        <v>49641600</v>
+        <v>36722700</v>
       </c>
       <c r="G17" s="3">
-        <v>53285100</v>
+        <v>47450100</v>
       </c>
       <c r="H17" s="3">
-        <v>53779300</v>
+        <v>50932700</v>
       </c>
       <c r="I17" s="3">
-        <v>63746100</v>
+        <v>51405100</v>
       </c>
       <c r="J17" s="3">
+        <v>60931900</v>
+      </c>
+      <c r="K17" s="3">
         <v>57618800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3257300</v>
+        <v>2337100</v>
       </c>
       <c r="E18" s="3">
-        <v>2299500</v>
+        <v>3128100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2997900</v>
+        <v>2198000</v>
       </c>
       <c r="G18" s="3">
-        <v>524700</v>
+        <v>-2865600</v>
       </c>
       <c r="H18" s="3">
-        <v>1218400</v>
+        <v>501500</v>
       </c>
       <c r="I18" s="3">
-        <v>4270300</v>
+        <v>1164600</v>
       </c>
       <c r="J18" s="3">
+        <v>4081800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4167000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1053,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1260700</v>
+        <v>1470900</v>
       </c>
       <c r="E20" s="3">
-        <v>487100</v>
+        <v>883000</v>
       </c>
       <c r="F20" s="3">
-        <v>854500</v>
+        <v>465600</v>
       </c>
       <c r="G20" s="3">
-        <v>1331100</v>
+        <v>816800</v>
       </c>
       <c r="H20" s="3">
-        <v>922600</v>
+        <v>1272300</v>
       </c>
       <c r="I20" s="3">
-        <v>1248900</v>
+        <v>881900</v>
       </c>
       <c r="J20" s="3">
+        <v>1193800</v>
+      </c>
+      <c r="K20" s="3">
         <v>9400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7335900</v>
+        <v>6214900</v>
       </c>
       <c r="E21" s="3">
-        <v>5757200</v>
+        <v>6709200</v>
       </c>
       <c r="F21" s="3">
-        <v>1526100</v>
+        <v>5507900</v>
       </c>
       <c r="G21" s="3">
-        <v>3965400</v>
+        <v>1464800</v>
       </c>
       <c r="H21" s="3">
-        <v>3926400</v>
+        <v>3793800</v>
       </c>
       <c r="I21" s="3">
-        <v>8454600</v>
+        <v>3756000</v>
       </c>
       <c r="J21" s="3">
+        <v>8086200</v>
+      </c>
+      <c r="K21" s="3">
         <v>6606700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>549300</v>
+        <v>68400</v>
       </c>
       <c r="E22" s="3">
-        <v>590400</v>
+        <v>525100</v>
       </c>
       <c r="F22" s="3">
-        <v>617400</v>
+        <v>564400</v>
       </c>
       <c r="G22" s="3">
-        <v>538800</v>
+        <v>590200</v>
       </c>
       <c r="H22" s="3">
-        <v>636200</v>
+        <v>515000</v>
       </c>
       <c r="I22" s="3">
-        <v>2111700</v>
+        <v>608100</v>
       </c>
       <c r="J22" s="3">
+        <v>2018500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1022400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3968700</v>
+        <v>3739600</v>
       </c>
       <c r="E23" s="3">
-        <v>2196200</v>
+        <v>3486000</v>
       </c>
       <c r="F23" s="3">
-        <v>-2760800</v>
+        <v>2099200</v>
       </c>
       <c r="G23" s="3">
-        <v>1317000</v>
+        <v>-2638900</v>
       </c>
       <c r="H23" s="3">
-        <v>1504800</v>
+        <v>1258900</v>
       </c>
       <c r="I23" s="3">
-        <v>3407600</v>
+        <v>1438400</v>
       </c>
       <c r="J23" s="3">
+        <v>3257100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3154000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1432000</v>
+        <v>1555100</v>
       </c>
       <c r="E24" s="3">
-        <v>459000</v>
+        <v>1368800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1169100</v>
+        <v>438700</v>
       </c>
       <c r="G24" s="3">
-        <v>171400</v>
+        <v>-1117500</v>
       </c>
       <c r="H24" s="3">
-        <v>505900</v>
+        <v>163800</v>
       </c>
       <c r="I24" s="3">
-        <v>1650400</v>
+        <v>483600</v>
       </c>
       <c r="J24" s="3">
+        <v>1577500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1163200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2536600</v>
+        <v>2184500</v>
       </c>
       <c r="E26" s="3">
-        <v>1737200</v>
+        <v>2117200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1591700</v>
+        <v>1660500</v>
       </c>
       <c r="G26" s="3">
-        <v>1145600</v>
+        <v>-1521400</v>
       </c>
       <c r="H26" s="3">
-        <v>998900</v>
+        <v>1095100</v>
       </c>
       <c r="I26" s="3">
-        <v>1757200</v>
+        <v>954800</v>
       </c>
       <c r="J26" s="3">
+        <v>1679600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1990800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2455600</v>
+        <v>2131800</v>
       </c>
       <c r="E27" s="3">
-        <v>1653900</v>
+        <v>2039800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1666800</v>
+        <v>1580900</v>
       </c>
       <c r="G27" s="3">
-        <v>1191400</v>
+        <v>-1593200</v>
       </c>
       <c r="H27" s="3">
-        <v>1031800</v>
+        <v>1138800</v>
       </c>
       <c r="I27" s="3">
-        <v>1678500</v>
+        <v>986200</v>
       </c>
       <c r="J27" s="3">
+        <v>1604400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1663300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,36 +1320,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>462300</v>
       </c>
       <c r="E29" s="3">
-        <v>351000</v>
+        <v>307400</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>335500</v>
       </c>
       <c r="G29" s="3">
-        <v>700800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-802900</v>
+        <v>669800</v>
       </c>
       <c r="I29" s="3">
-        <v>876800</v>
+        <v>-767400</v>
       </c>
       <c r="J29" s="3">
+        <v>838100</v>
+      </c>
+      <c r="K29" s="3">
         <v>910900</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1260700</v>
+        <v>-1470900</v>
       </c>
       <c r="E32" s="3">
-        <v>-487100</v>
+        <v>-883000</v>
       </c>
       <c r="F32" s="3">
-        <v>-854500</v>
+        <v>-465600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1331100</v>
+        <v>-816800</v>
       </c>
       <c r="H32" s="3">
-        <v>-922600</v>
+        <v>-1272300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1248900</v>
+        <v>-881900</v>
       </c>
       <c r="J32" s="3">
+        <v>-1193800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2455600</v>
+        <v>2594000</v>
       </c>
       <c r="E33" s="3">
-        <v>2004900</v>
+        <v>2347200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1666800</v>
+        <v>1916400</v>
       </c>
       <c r="G33" s="3">
-        <v>1892200</v>
+        <v>-1593200</v>
       </c>
       <c r="H33" s="3">
-        <v>228900</v>
+        <v>1808600</v>
       </c>
       <c r="I33" s="3">
-        <v>2555400</v>
+        <v>218800</v>
       </c>
       <c r="J33" s="3">
+        <v>2442600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2574200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2455600</v>
+        <v>2594000</v>
       </c>
       <c r="E35" s="3">
-        <v>2004900</v>
+        <v>2347200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1666800</v>
+        <v>1916400</v>
       </c>
       <c r="G35" s="3">
-        <v>1892200</v>
+        <v>-1593200</v>
       </c>
       <c r="H35" s="3">
-        <v>228900</v>
+        <v>1808600</v>
       </c>
       <c r="I35" s="3">
-        <v>2555400</v>
+        <v>218800</v>
       </c>
       <c r="J35" s="3">
+        <v>2442600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2574200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1596,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4405300</v>
+        <v>4627100</v>
       </c>
       <c r="E41" s="3">
-        <v>3764400</v>
+        <v>4210800</v>
       </c>
       <c r="F41" s="3">
-        <v>5586200</v>
+        <v>3598200</v>
       </c>
       <c r="G41" s="3">
-        <v>2594100</v>
+        <v>5339600</v>
       </c>
       <c r="H41" s="3">
-        <v>11300300</v>
+        <v>2479600</v>
       </c>
       <c r="I41" s="3">
-        <v>6929000</v>
+        <v>10801400</v>
       </c>
       <c r="J41" s="3">
+        <v>6623100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3142300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1367500</v>
+        <v>2932900</v>
       </c>
       <c r="E42" s="3">
-        <v>3314800</v>
+        <v>1307100</v>
       </c>
       <c r="F42" s="3">
-        <v>2097600</v>
+        <v>3168500</v>
       </c>
       <c r="G42" s="3">
-        <v>6390200</v>
+        <v>2005000</v>
       </c>
       <c r="H42" s="3">
-        <v>2562400</v>
+        <v>6108100</v>
       </c>
       <c r="I42" s="3">
-        <v>487100</v>
+        <v>2449300</v>
       </c>
       <c r="J42" s="3">
+        <v>465600</v>
+      </c>
+      <c r="K42" s="3">
         <v>791100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6869100</v>
+        <v>6579300</v>
       </c>
       <c r="E43" s="3">
-        <v>6832700</v>
+        <v>6565900</v>
       </c>
       <c r="F43" s="3">
-        <v>15911000</v>
+        <v>6531100</v>
       </c>
       <c r="G43" s="3">
-        <v>6082700</v>
+        <v>15208600</v>
       </c>
       <c r="H43" s="3">
-        <v>16897000</v>
+        <v>5814200</v>
       </c>
       <c r="I43" s="3">
-        <v>9133400</v>
+        <v>16151000</v>
       </c>
       <c r="J43" s="3">
+        <v>8730200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10824900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4457000</v>
+        <v>4925500</v>
       </c>
       <c r="E44" s="3">
-        <v>4231600</v>
+        <v>4260200</v>
       </c>
       <c r="F44" s="3">
-        <v>6697800</v>
+        <v>4044800</v>
       </c>
       <c r="G44" s="3">
-        <v>4614200</v>
+        <v>6402100</v>
       </c>
       <c r="H44" s="3">
-        <v>11592500</v>
+        <v>4410500</v>
       </c>
       <c r="I44" s="3">
-        <v>6457100</v>
+        <v>11080800</v>
       </c>
       <c r="J44" s="3">
+        <v>6172100</v>
+      </c>
+      <c r="K44" s="3">
         <v>8543000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>239500</v>
+        <v>338800</v>
       </c>
       <c r="E45" s="3">
-        <v>552900</v>
+        <v>228900</v>
       </c>
       <c r="F45" s="3">
-        <v>625600</v>
+        <v>528500</v>
       </c>
       <c r="G45" s="3">
-        <v>321600</v>
+        <v>598000</v>
       </c>
       <c r="H45" s="3">
-        <v>2151600</v>
+        <v>307400</v>
       </c>
       <c r="I45" s="3">
-        <v>658500</v>
+        <v>2056600</v>
       </c>
       <c r="J45" s="3">
+        <v>629400</v>
+      </c>
+      <c r="K45" s="3">
         <v>561100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17338300</v>
+        <v>19403700</v>
       </c>
       <c r="E46" s="3">
-        <v>18696400</v>
+        <v>16572900</v>
       </c>
       <c r="F46" s="3">
-        <v>14968400</v>
+        <v>17871100</v>
       </c>
       <c r="G46" s="3">
-        <v>20002900</v>
+        <v>14307600</v>
       </c>
       <c r="H46" s="3">
-        <v>20865600</v>
+        <v>19119800</v>
       </c>
       <c r="I46" s="3">
-        <v>23665200</v>
+        <v>19944500</v>
       </c>
       <c r="J46" s="3">
+        <v>22620400</v>
+      </c>
+      <c r="K46" s="3">
         <v>23862400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13273400</v>
+        <v>9346200</v>
       </c>
       <c r="E47" s="3">
-        <v>13358000</v>
+        <v>12687500</v>
       </c>
       <c r="F47" s="3">
-        <v>14691400</v>
+        <v>12768200</v>
       </c>
       <c r="G47" s="3">
-        <v>13737100</v>
+        <v>14042800</v>
       </c>
       <c r="H47" s="3">
-        <v>15788900</v>
+        <v>13130600</v>
       </c>
       <c r="I47" s="3">
-        <v>8735500</v>
+        <v>15091900</v>
       </c>
       <c r="J47" s="3">
+        <v>8349800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3696300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28954400</v>
+        <v>28609600</v>
       </c>
       <c r="E48" s="3">
-        <v>32119000</v>
+        <v>27676100</v>
       </c>
       <c r="F48" s="3">
-        <v>66238100</v>
+        <v>30701000</v>
       </c>
       <c r="G48" s="3">
-        <v>20147300</v>
+        <v>63313900</v>
       </c>
       <c r="H48" s="3">
-        <v>37651100</v>
+        <v>19257800</v>
       </c>
       <c r="I48" s="3">
-        <v>33162500</v>
+        <v>35989000</v>
       </c>
       <c r="J48" s="3">
+        <v>31698500</v>
+      </c>
+      <c r="K48" s="3">
         <v>43176300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5380700</v>
+        <v>5717700</v>
       </c>
       <c r="E49" s="3">
-        <v>5997000</v>
+        <v>5143200</v>
       </c>
       <c r="F49" s="3">
-        <v>11235700</v>
+        <v>5732200</v>
       </c>
       <c r="G49" s="3">
-        <v>2182100</v>
+        <v>10739700</v>
       </c>
       <c r="H49" s="3">
-        <v>6592100</v>
+        <v>2085800</v>
       </c>
       <c r="I49" s="3">
-        <v>6472400</v>
+        <v>6301100</v>
       </c>
       <c r="J49" s="3">
+        <v>6186700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9135800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5313800</v>
+        <v>5115200</v>
       </c>
       <c r="E52" s="3">
-        <v>5950000</v>
+        <v>5079200</v>
       </c>
       <c r="F52" s="3">
-        <v>6079200</v>
+        <v>5687400</v>
       </c>
       <c r="G52" s="3">
-        <v>4838400</v>
+        <v>5810800</v>
       </c>
       <c r="H52" s="3">
-        <v>9410400</v>
+        <v>4624800</v>
       </c>
       <c r="I52" s="3">
-        <v>4169400</v>
+        <v>8995000</v>
       </c>
       <c r="J52" s="3">
+        <v>3985300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3419300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70260700</v>
+        <v>68192300</v>
       </c>
       <c r="E54" s="3">
-        <v>76120400</v>
+        <v>67159000</v>
       </c>
       <c r="F54" s="3">
-        <v>74180100</v>
+        <v>72759900</v>
       </c>
       <c r="G54" s="3">
-        <v>60907800</v>
+        <v>70905300</v>
       </c>
       <c r="H54" s="3">
-        <v>65201600</v>
+        <v>58218900</v>
       </c>
       <c r="I54" s="3">
-        <v>76204900</v>
+        <v>62323200</v>
       </c>
       <c r="J54" s="3">
+        <v>72840700</v>
+      </c>
+      <c r="K54" s="3">
         <v>83290000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2044,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3213900</v>
+        <v>3639700</v>
       </c>
       <c r="E57" s="3">
-        <v>2497900</v>
+        <v>3072000</v>
       </c>
       <c r="F57" s="3">
-        <v>2111700</v>
+        <v>2387600</v>
       </c>
       <c r="G57" s="3">
-        <v>2758500</v>
+        <v>2018500</v>
       </c>
       <c r="H57" s="3">
-        <v>3037800</v>
+        <v>2636700</v>
       </c>
       <c r="I57" s="3">
-        <v>5136600</v>
+        <v>2903700</v>
       </c>
       <c r="J57" s="3">
+        <v>4909800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5583800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4859600</v>
+        <v>4214200</v>
       </c>
       <c r="E58" s="3">
-        <v>4577900</v>
+        <v>4645000</v>
       </c>
       <c r="F58" s="3">
-        <v>5035600</v>
+        <v>4375800</v>
       </c>
       <c r="G58" s="3">
-        <v>1751300</v>
+        <v>4813300</v>
       </c>
       <c r="H58" s="3">
-        <v>4187000</v>
+        <v>1674000</v>
       </c>
       <c r="I58" s="3">
-        <v>4711700</v>
+        <v>4002100</v>
       </c>
       <c r="J58" s="3">
+        <v>4503700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6113200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6053300</v>
+        <v>6518800</v>
       </c>
       <c r="E59" s="3">
-        <v>10222700</v>
+        <v>5786100</v>
       </c>
       <c r="F59" s="3">
-        <v>24971600</v>
+        <v>9771400</v>
       </c>
       <c r="G59" s="3">
-        <v>7513600</v>
+        <v>23869200</v>
       </c>
       <c r="H59" s="3">
-        <v>18978200</v>
+        <v>7181900</v>
       </c>
       <c r="I59" s="3">
-        <v>5775100</v>
+        <v>18140300</v>
       </c>
       <c r="J59" s="3">
+        <v>5520200</v>
+      </c>
+      <c r="K59" s="3">
         <v>8379800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14126800</v>
+        <v>14372700</v>
       </c>
       <c r="E60" s="3">
-        <v>17298400</v>
+        <v>13503100</v>
       </c>
       <c r="F60" s="3">
-        <v>16993200</v>
+        <v>16534800</v>
       </c>
       <c r="G60" s="3">
-        <v>12023300</v>
+        <v>16243000</v>
       </c>
       <c r="H60" s="3">
-        <v>15700900</v>
+        <v>11492500</v>
       </c>
       <c r="I60" s="3">
-        <v>15623400</v>
+        <v>15007700</v>
       </c>
       <c r="J60" s="3">
+        <v>14933700</v>
+      </c>
+      <c r="K60" s="3">
         <v>20076800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10250900</v>
+        <v>8926600</v>
       </c>
       <c r="E61" s="3">
-        <v>12848500</v>
+        <v>9798300</v>
       </c>
       <c r="F61" s="3">
-        <v>14110400</v>
+        <v>12281300</v>
       </c>
       <c r="G61" s="3">
-        <v>10491500</v>
+        <v>13487400</v>
       </c>
       <c r="H61" s="3">
-        <v>11357800</v>
+        <v>10028300</v>
       </c>
       <c r="I61" s="3">
-        <v>21181400</v>
+        <v>10856400</v>
       </c>
       <c r="J61" s="3">
+        <v>20246300</v>
+      </c>
+      <c r="K61" s="3">
         <v>21373900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10594800</v>
+        <v>10207900</v>
       </c>
       <c r="E62" s="3">
-        <v>9455000</v>
+        <v>10127100</v>
       </c>
       <c r="F62" s="3">
-        <v>16155100</v>
+        <v>9037600</v>
       </c>
       <c r="G62" s="3">
-        <v>5345500</v>
+        <v>15441900</v>
       </c>
       <c r="H62" s="3">
-        <v>10727400</v>
+        <v>5109500</v>
       </c>
       <c r="I62" s="3">
-        <v>7153200</v>
+        <v>10253900</v>
       </c>
       <c r="J62" s="3">
+        <v>6837400</v>
+      </c>
+      <c r="K62" s="3">
         <v>10095900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35289400</v>
+        <v>33828000</v>
       </c>
       <c r="E66" s="3">
-        <v>39888400</v>
+        <v>33731500</v>
       </c>
       <c r="F66" s="3">
-        <v>40686600</v>
+        <v>38127500</v>
       </c>
       <c r="G66" s="3">
-        <v>28115100</v>
+        <v>38890400</v>
       </c>
       <c r="H66" s="3">
-        <v>33265800</v>
+        <v>26873900</v>
       </c>
       <c r="I66" s="3">
-        <v>44861800</v>
+        <v>31797200</v>
       </c>
       <c r="J66" s="3">
+        <v>42881300</v>
+      </c>
+      <c r="K66" s="3">
         <v>55660900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2415,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2445,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24924700</v>
+        <v>24467200</v>
       </c>
       <c r="E72" s="3">
-        <v>22936200</v>
+        <v>23824300</v>
       </c>
       <c r="F72" s="3">
-        <v>21368000</v>
+        <v>21923700</v>
       </c>
       <c r="G72" s="3">
-        <v>23272000</v>
+        <v>20424700</v>
       </c>
       <c r="H72" s="3">
-        <v>55420300</v>
+        <v>22244600</v>
       </c>
       <c r="I72" s="3">
-        <v>23969200</v>
+        <v>52973600</v>
       </c>
       <c r="J72" s="3">
+        <v>22911000</v>
+      </c>
+      <c r="K72" s="3">
         <v>22074700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34971300</v>
+        <v>34364300</v>
       </c>
       <c r="E76" s="3">
-        <v>36232000</v>
+        <v>33427400</v>
       </c>
       <c r="F76" s="3">
-        <v>33493500</v>
+        <v>34632500</v>
       </c>
       <c r="G76" s="3">
-        <v>32792700</v>
+        <v>32014900</v>
       </c>
       <c r="H76" s="3">
-        <v>31935800</v>
+        <v>31345000</v>
       </c>
       <c r="I76" s="3">
-        <v>31343100</v>
+        <v>30526000</v>
       </c>
       <c r="J76" s="3">
+        <v>29959400</v>
+      </c>
+      <c r="K76" s="3">
         <v>27629100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2455600</v>
+        <v>2594000</v>
       </c>
       <c r="E81" s="3">
-        <v>2004900</v>
+        <v>2347200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1666800</v>
+        <v>1916400</v>
       </c>
       <c r="G81" s="3">
-        <v>1892200</v>
+        <v>-1593200</v>
       </c>
       <c r="H81" s="3">
-        <v>228900</v>
+        <v>1808600</v>
       </c>
       <c r="I81" s="3">
-        <v>2555400</v>
+        <v>218800</v>
       </c>
       <c r="J81" s="3">
+        <v>2442600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2574200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2816000</v>
+        <v>2401100</v>
       </c>
       <c r="E83" s="3">
-        <v>2968600</v>
+        <v>2691700</v>
       </c>
       <c r="F83" s="3">
-        <v>3667000</v>
+        <v>2837500</v>
       </c>
       <c r="G83" s="3">
-        <v>2108200</v>
+        <v>3505100</v>
       </c>
       <c r="H83" s="3">
-        <v>1784200</v>
+        <v>2015100</v>
       </c>
       <c r="I83" s="3">
-        <v>2933400</v>
+        <v>1705400</v>
       </c>
       <c r="J83" s="3">
+        <v>2803900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2428600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6001700</v>
+        <v>5137600</v>
       </c>
       <c r="E89" s="3">
-        <v>4566100</v>
+        <v>5736700</v>
       </c>
       <c r="F89" s="3">
-        <v>5793900</v>
+        <v>4364500</v>
       </c>
       <c r="G89" s="3">
-        <v>3635300</v>
+        <v>5538100</v>
       </c>
       <c r="H89" s="3">
-        <v>3138800</v>
+        <v>3474800</v>
       </c>
       <c r="I89" s="3">
-        <v>7947900</v>
+        <v>3000200</v>
       </c>
       <c r="J89" s="3">
+        <v>7597000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4836100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2699800</v>
+        <v>-2985600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2351100</v>
+        <v>-2580600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3510900</v>
+        <v>-2247300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3058900</v>
+        <v>-3355900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2338200</v>
+        <v>-2923900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4001500</v>
+        <v>-2235000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3824900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4169400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3273800</v>
+        <v>-1524800</v>
       </c>
       <c r="E94" s="3">
-        <v>459000</v>
+        <v>-3129200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10517300</v>
+        <v>438700</v>
       </c>
       <c r="G94" s="3">
-        <v>1327600</v>
+        <v>-10053000</v>
       </c>
       <c r="H94" s="3">
-        <v>365100</v>
+        <v>1269000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4410000</v>
+        <v>348900</v>
       </c>
       <c r="J94" s="3">
+        <v>-4215300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6225900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3095,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-389700</v>
+        <v>-333200</v>
       </c>
       <c r="E96" s="3">
-        <v>-493000</v>
+        <v>-372500</v>
       </c>
       <c r="F96" s="3">
-        <v>-572800</v>
+        <v>-471200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2009600</v>
+        <v>-547500</v>
       </c>
       <c r="H96" s="3">
-        <v>-551700</v>
+        <v>-1920800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1111600</v>
+        <v>-527300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1062500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1564700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2771400</v>
+        <v>-3401900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2409800</v>
+        <v>-2649000</v>
       </c>
       <c r="F100" s="3">
-        <v>2083500</v>
+        <v>-2303400</v>
       </c>
       <c r="G100" s="3">
-        <v>-6400800</v>
+        <v>1991500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1595200</v>
+        <v>-6118200</v>
       </c>
       <c r="I100" s="3">
-        <v>340400</v>
+        <v>-1524800</v>
       </c>
       <c r="J100" s="3">
+        <v>325400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2938000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57500</v>
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>12900</v>
+        <v>-55000</v>
       </c>
       <c r="F101" s="3">
-        <v>69300</v>
+        <v>12300</v>
       </c>
       <c r="G101" s="3">
-        <v>172600</v>
+        <v>66200</v>
       </c>
       <c r="H101" s="3">
-        <v>-21100</v>
+        <v>164900</v>
       </c>
       <c r="I101" s="3">
-        <v>-91600</v>
+        <v>-20200</v>
       </c>
       <c r="J101" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-98600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100900</v>
+        <v>207600</v>
       </c>
       <c r="E102" s="3">
-        <v>2628200</v>
+        <v>-96500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2570600</v>
+        <v>2512100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1265400</v>
+        <v>-2457200</v>
       </c>
       <c r="H102" s="3">
-        <v>1887500</v>
+        <v>-1209500</v>
       </c>
       <c r="I102" s="3">
-        <v>3786700</v>
+        <v>1804200</v>
       </c>
       <c r="J102" s="3">
+        <v>3619500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4426400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/REPYY_YR_FIN.xlsx
+++ b/Financials/Yearly/REPYY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BB5C9-0C02-4FB2-9CBB-572432B8663C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="REPYY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,34 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55957000</v>
+        <v>54760600</v>
       </c>
       <c r="E8" s="3">
-        <v>46751100</v>
+        <v>45751500</v>
       </c>
       <c r="F8" s="3">
-        <v>38920700</v>
+        <v>38088500</v>
       </c>
       <c r="G8" s="3">
-        <v>44584500</v>
+        <v>43631200</v>
       </c>
       <c r="H8" s="3">
-        <v>51434300</v>
+        <v>50334500</v>
       </c>
       <c r="I8" s="3">
-        <v>52569700</v>
+        <v>51445700</v>
       </c>
       <c r="J8" s="3">
-        <v>65013700</v>
+        <v>63623600</v>
       </c>
       <c r="K8" s="3">
         <v>61785800</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43381700</v>
+        <v>42454200</v>
       </c>
       <c r="E9" s="3">
-        <v>34654900</v>
+        <v>33913900</v>
       </c>
       <c r="F9" s="3">
-        <v>26351100</v>
+        <v>25787600</v>
       </c>
       <c r="G9" s="3">
-        <v>37455400</v>
+        <v>36654500</v>
       </c>
       <c r="H9" s="3">
-        <v>46557000</v>
+        <v>45561500</v>
       </c>
       <c r="I9" s="3">
-        <v>46948500</v>
+        <v>45944700</v>
       </c>
       <c r="J9" s="3">
-        <v>49505600</v>
+        <v>48447100</v>
       </c>
       <c r="K9" s="3">
         <v>46491100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12575300</v>
+        <v>12306400</v>
       </c>
       <c r="E10" s="3">
-        <v>12096200</v>
+        <v>11837500</v>
       </c>
       <c r="F10" s="3">
-        <v>12569700</v>
+        <v>12300900</v>
       </c>
       <c r="G10" s="3">
-        <v>7129100</v>
+        <v>6976700</v>
       </c>
       <c r="H10" s="3">
-        <v>4877300</v>
+        <v>4773000</v>
       </c>
       <c r="I10" s="3">
-        <v>5621200</v>
+        <v>5501000</v>
       </c>
       <c r="J10" s="3">
-        <v>15508100</v>
+        <v>15176600</v>
       </c>
       <c r="K10" s="3">
         <v>15294700</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,27 +813,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>589000</v>
+        <v>576500</v>
       </c>
       <c r="E12" s="3">
-        <v>734900</v>
+        <v>719200</v>
       </c>
       <c r="F12" s="3">
-        <v>378100</v>
+        <v>370000</v>
       </c>
       <c r="G12" s="3">
-        <v>1767100</v>
+        <v>1729400</v>
       </c>
       <c r="H12" s="3">
-        <v>446600</v>
+        <v>437000</v>
       </c>
       <c r="I12" s="3">
-        <v>188500</v>
+        <v>184500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -880,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1162400</v>
+        <v>1249500</v>
       </c>
       <c r="E14" s="3">
-        <v>-493700</v>
+        <v>-1363700</v>
       </c>
       <c r="F14" s="3">
-        <v>-969400</v>
+        <v>-948700</v>
       </c>
       <c r="G14" s="3">
-        <v>2532300</v>
+        <v>2478200</v>
       </c>
       <c r="H14" s="3">
-        <v>-110000</v>
+        <v>-107600</v>
       </c>
       <c r="I14" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="J14" s="3">
-        <v>47100</v>
+        <v>46100</v>
       </c>
       <c r="K14" s="3">
         <v>212500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2146400</v>
+        <v>2100500</v>
       </c>
       <c r="E15" s="3">
-        <v>2493100</v>
+        <v>2439800</v>
       </c>
       <c r="F15" s="3">
-        <v>2567100</v>
+        <v>2512200</v>
       </c>
       <c r="G15" s="3">
-        <v>2615400</v>
+        <v>2559400</v>
       </c>
       <c r="H15" s="3">
-        <v>1568500</v>
+        <v>1535000</v>
       </c>
       <c r="I15" s="3">
-        <v>1516900</v>
+        <v>1484500</v>
       </c>
       <c r="J15" s="3">
-        <v>2803900</v>
+        <v>2743900</v>
       </c>
       <c r="K15" s="3">
         <v>2428600</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -981,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>53619900</v>
+        <v>52473400</v>
       </c>
       <c r="E17" s="3">
-        <v>43623000</v>
+        <v>42690200</v>
       </c>
       <c r="F17" s="3">
-        <v>36722700</v>
+        <v>35937500</v>
       </c>
       <c r="G17" s="3">
-        <v>47450100</v>
+        <v>46435500</v>
       </c>
       <c r="H17" s="3">
-        <v>50932700</v>
+        <v>49843700</v>
       </c>
       <c r="I17" s="3">
-        <v>51405100</v>
+        <v>50306000</v>
       </c>
       <c r="J17" s="3">
-        <v>60931900</v>
+        <v>59629100</v>
       </c>
       <c r="K17" s="3">
         <v>57618800</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2337100</v>
+        <v>2287100</v>
       </c>
       <c r="E18" s="3">
-        <v>3128100</v>
+        <v>3061200</v>
       </c>
       <c r="F18" s="3">
-        <v>2198000</v>
+        <v>2151000</v>
       </c>
       <c r="G18" s="3">
-        <v>-2865600</v>
+        <v>-2804300</v>
       </c>
       <c r="H18" s="3">
-        <v>501500</v>
+        <v>490800</v>
       </c>
       <c r="I18" s="3">
-        <v>1164600</v>
+        <v>1139700</v>
       </c>
       <c r="J18" s="3">
-        <v>4081800</v>
+        <v>3994500</v>
       </c>
       <c r="K18" s="3">
         <v>4167000</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1470900</v>
+        <v>1439500</v>
       </c>
       <c r="E20" s="3">
-        <v>883000</v>
+        <v>864100</v>
       </c>
       <c r="F20" s="3">
-        <v>465600</v>
+        <v>455700</v>
       </c>
       <c r="G20" s="3">
-        <v>816800</v>
+        <v>799300</v>
       </c>
       <c r="H20" s="3">
-        <v>1272300</v>
+        <v>1245100</v>
       </c>
       <c r="I20" s="3">
-        <v>881900</v>
+        <v>863000</v>
       </c>
       <c r="J20" s="3">
-        <v>1193800</v>
+        <v>1168300</v>
       </c>
       <c r="K20" s="3">
         <v>9400</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6214900</v>
+        <v>6080000</v>
       </c>
       <c r="E21" s="3">
-        <v>6709200</v>
+        <v>6563500</v>
       </c>
       <c r="F21" s="3">
-        <v>5507900</v>
+        <v>5387800</v>
       </c>
       <c r="G21" s="3">
-        <v>1464800</v>
+        <v>1430500</v>
       </c>
       <c r="H21" s="3">
-        <v>3793800</v>
+        <v>3711000</v>
       </c>
       <c r="I21" s="3">
-        <v>3756000</v>
+        <v>3674300</v>
       </c>
       <c r="J21" s="3">
-        <v>8086200</v>
+        <v>7910900</v>
       </c>
       <c r="K21" s="3">
         <v>6606700</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68400</v>
+        <v>67000</v>
       </c>
       <c r="E22" s="3">
-        <v>525100</v>
+        <v>513900</v>
       </c>
       <c r="F22" s="3">
-        <v>564400</v>
+        <v>552300</v>
       </c>
       <c r="G22" s="3">
-        <v>590200</v>
+        <v>577500</v>
       </c>
       <c r="H22" s="3">
-        <v>515000</v>
+        <v>504000</v>
       </c>
       <c r="I22" s="3">
-        <v>608100</v>
+        <v>595100</v>
       </c>
       <c r="J22" s="3">
-        <v>2018500</v>
+        <v>1975300</v>
       </c>
       <c r="K22" s="3">
         <v>1022400</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3739600</v>
+        <v>3659600</v>
       </c>
       <c r="E23" s="3">
-        <v>3486000</v>
+        <v>3411500</v>
       </c>
       <c r="F23" s="3">
-        <v>2099200</v>
+        <v>2054400</v>
       </c>
       <c r="G23" s="3">
-        <v>-2638900</v>
+        <v>-2582500</v>
       </c>
       <c r="H23" s="3">
-        <v>1258900</v>
+        <v>1232000</v>
       </c>
       <c r="I23" s="3">
-        <v>1438400</v>
+        <v>1407600</v>
       </c>
       <c r="J23" s="3">
-        <v>3257100</v>
+        <v>3187500</v>
       </c>
       <c r="K23" s="3">
         <v>3154000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1555100</v>
+        <v>1521800</v>
       </c>
       <c r="E24" s="3">
-        <v>1368800</v>
+        <v>1339600</v>
       </c>
       <c r="F24" s="3">
-        <v>438700</v>
+        <v>429300</v>
       </c>
       <c r="G24" s="3">
-        <v>-1117500</v>
+        <v>-1093600</v>
       </c>
       <c r="H24" s="3">
-        <v>163800</v>
+        <v>160300</v>
       </c>
       <c r="I24" s="3">
-        <v>483600</v>
+        <v>473200</v>
       </c>
       <c r="J24" s="3">
-        <v>1577500</v>
+        <v>1543800</v>
       </c>
       <c r="K24" s="3">
         <v>1163200</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2184500</v>
+        <v>2137800</v>
       </c>
       <c r="E26" s="3">
-        <v>2117200</v>
+        <v>2071900</v>
       </c>
       <c r="F26" s="3">
-        <v>1660500</v>
+        <v>1625000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1521400</v>
+        <v>-1488900</v>
       </c>
       <c r="H26" s="3">
-        <v>1095100</v>
+        <v>1071600</v>
       </c>
       <c r="I26" s="3">
-        <v>954800</v>
+        <v>934400</v>
       </c>
       <c r="J26" s="3">
-        <v>1679600</v>
+        <v>1643700</v>
       </c>
       <c r="K26" s="3">
         <v>1990800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2131800</v>
+        <v>2086200</v>
       </c>
       <c r="E27" s="3">
-        <v>2039800</v>
+        <v>1996200</v>
       </c>
       <c r="F27" s="3">
-        <v>1580900</v>
+        <v>1547100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1593200</v>
+        <v>-1559200</v>
       </c>
       <c r="H27" s="3">
-        <v>1138800</v>
+        <v>1114500</v>
       </c>
       <c r="I27" s="3">
-        <v>986200</v>
+        <v>965100</v>
       </c>
       <c r="J27" s="3">
-        <v>1604400</v>
+        <v>1570100</v>
       </c>
       <c r="K27" s="3">
         <v>1663300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,37 +1288,37 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>462300</v>
+        <v>452400</v>
       </c>
       <c r="E29" s="3">
-        <v>307400</v>
+        <v>300900</v>
       </c>
       <c r="F29" s="3">
-        <v>335500</v>
+        <v>328300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>669800</v>
+        <v>655500</v>
       </c>
       <c r="I29" s="3">
-        <v>-767400</v>
+        <v>-751000</v>
       </c>
       <c r="J29" s="3">
-        <v>838100</v>
+        <v>820200</v>
       </c>
       <c r="K29" s="3">
         <v>910900</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1470900</v>
+        <v>-1439500</v>
       </c>
       <c r="E32" s="3">
-        <v>-883000</v>
+        <v>-864100</v>
       </c>
       <c r="F32" s="3">
-        <v>-465600</v>
+        <v>-455700</v>
       </c>
       <c r="G32" s="3">
-        <v>-816800</v>
+        <v>-799300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1272300</v>
+        <v>-1245100</v>
       </c>
       <c r="I32" s="3">
-        <v>-881900</v>
+        <v>-863000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1193800</v>
+        <v>-1168300</v>
       </c>
       <c r="K32" s="3">
         <v>-9400</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2594000</v>
+        <v>2538600</v>
       </c>
       <c r="E33" s="3">
-        <v>2347200</v>
+        <v>2297000</v>
       </c>
       <c r="F33" s="3">
-        <v>1916400</v>
+        <v>1875400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1593200</v>
+        <v>-1559200</v>
       </c>
       <c r="H33" s="3">
-        <v>1808600</v>
+        <v>1770000</v>
       </c>
       <c r="I33" s="3">
-        <v>218800</v>
+        <v>214100</v>
       </c>
       <c r="J33" s="3">
-        <v>2442600</v>
+        <v>2390300</v>
       </c>
       <c r="K33" s="3">
         <v>2574200</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2594000</v>
+        <v>2538600</v>
       </c>
       <c r="E35" s="3">
-        <v>2347200</v>
+        <v>2297000</v>
       </c>
       <c r="F35" s="3">
-        <v>1916400</v>
+        <v>1875400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1593200</v>
+        <v>-1559200</v>
       </c>
       <c r="H35" s="3">
-        <v>1808600</v>
+        <v>1770000</v>
       </c>
       <c r="I35" s="3">
-        <v>218800</v>
+        <v>214100</v>
       </c>
       <c r="J35" s="3">
-        <v>2442600</v>
+        <v>2390300</v>
       </c>
       <c r="K35" s="3">
         <v>2574200</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1598,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4627100</v>
+        <v>4528200</v>
       </c>
       <c r="E41" s="3">
-        <v>4210800</v>
+        <v>4120800</v>
       </c>
       <c r="F41" s="3">
-        <v>3598200</v>
+        <v>3521300</v>
       </c>
       <c r="G41" s="3">
-        <v>5339600</v>
+        <v>5225400</v>
       </c>
       <c r="H41" s="3">
-        <v>2479600</v>
+        <v>2426600</v>
       </c>
       <c r="I41" s="3">
-        <v>10801400</v>
+        <v>10570400</v>
       </c>
       <c r="J41" s="3">
-        <v>6623100</v>
+        <v>6481500</v>
       </c>
       <c r="K41" s="3">
         <v>3142300</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2932900</v>
+        <v>2870200</v>
       </c>
       <c r="E42" s="3">
-        <v>1307100</v>
+        <v>1279200</v>
       </c>
       <c r="F42" s="3">
-        <v>3168500</v>
+        <v>3100800</v>
       </c>
       <c r="G42" s="3">
-        <v>2005000</v>
+        <v>1962100</v>
       </c>
       <c r="H42" s="3">
-        <v>6108100</v>
+        <v>5977500</v>
       </c>
       <c r="I42" s="3">
-        <v>2449300</v>
+        <v>2396900</v>
       </c>
       <c r="J42" s="3">
-        <v>465600</v>
+        <v>455700</v>
       </c>
       <c r="K42" s="3">
         <v>791100</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6579300</v>
+        <v>6438700</v>
       </c>
       <c r="E43" s="3">
-        <v>6565900</v>
+        <v>6425500</v>
       </c>
       <c r="F43" s="3">
-        <v>6531100</v>
+        <v>6391500</v>
       </c>
       <c r="G43" s="3">
-        <v>15208600</v>
+        <v>14883400</v>
       </c>
       <c r="H43" s="3">
-        <v>5814200</v>
+        <v>5689800</v>
       </c>
       <c r="I43" s="3">
-        <v>16151000</v>
+        <v>15805700</v>
       </c>
       <c r="J43" s="3">
-        <v>8730200</v>
+        <v>8543500</v>
       </c>
       <c r="K43" s="3">
         <v>10824900</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4925500</v>
+        <v>4820200</v>
       </c>
       <c r="E44" s="3">
-        <v>4260200</v>
+        <v>4169100</v>
       </c>
       <c r="F44" s="3">
-        <v>4044800</v>
+        <v>3958300</v>
       </c>
       <c r="G44" s="3">
-        <v>6402100</v>
+        <v>6265200</v>
       </c>
       <c r="H44" s="3">
-        <v>4410500</v>
+        <v>4316200</v>
       </c>
       <c r="I44" s="3">
-        <v>11080800</v>
+        <v>10843800</v>
       </c>
       <c r="J44" s="3">
-        <v>6172100</v>
+        <v>6040100</v>
       </c>
       <c r="K44" s="3">
         <v>8543000</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>338800</v>
+        <v>331600</v>
       </c>
       <c r="E45" s="3">
-        <v>228900</v>
+        <v>224000</v>
       </c>
       <c r="F45" s="3">
-        <v>528500</v>
+        <v>517200</v>
       </c>
       <c r="G45" s="3">
-        <v>598000</v>
+        <v>585200</v>
       </c>
       <c r="H45" s="3">
-        <v>307400</v>
+        <v>300900</v>
       </c>
       <c r="I45" s="3">
-        <v>2056600</v>
+        <v>2012600</v>
       </c>
       <c r="J45" s="3">
-        <v>629400</v>
+        <v>616000</v>
       </c>
       <c r="K45" s="3">
         <v>561100</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19403700</v>
+        <v>18988800</v>
       </c>
       <c r="E46" s="3">
-        <v>16572900</v>
+        <v>16218600</v>
       </c>
       <c r="F46" s="3">
-        <v>17871100</v>
+        <v>17488900</v>
       </c>
       <c r="G46" s="3">
-        <v>14307600</v>
+        <v>14001700</v>
       </c>
       <c r="H46" s="3">
-        <v>19119800</v>
+        <v>18711000</v>
       </c>
       <c r="I46" s="3">
-        <v>19944500</v>
+        <v>19518000</v>
       </c>
       <c r="J46" s="3">
-        <v>22620400</v>
+        <v>22136800</v>
       </c>
       <c r="K46" s="3">
         <v>23862400</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9346200</v>
+        <v>9146300</v>
       </c>
       <c r="E47" s="3">
-        <v>12687500</v>
+        <v>12416200</v>
       </c>
       <c r="F47" s="3">
-        <v>12768200</v>
+        <v>12495200</v>
       </c>
       <c r="G47" s="3">
-        <v>14042800</v>
+        <v>13742600</v>
       </c>
       <c r="H47" s="3">
-        <v>13130600</v>
+        <v>12849900</v>
       </c>
       <c r="I47" s="3">
-        <v>15091900</v>
+        <v>14769200</v>
       </c>
       <c r="J47" s="3">
-        <v>8349800</v>
+        <v>8171300</v>
       </c>
       <c r="K47" s="3">
         <v>3696300</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28609600</v>
+        <v>27997900</v>
       </c>
       <c r="E48" s="3">
-        <v>27676100</v>
+        <v>27084400</v>
       </c>
       <c r="F48" s="3">
-        <v>30701000</v>
+        <v>30044600</v>
       </c>
       <c r="G48" s="3">
-        <v>63313900</v>
+        <v>61960100</v>
       </c>
       <c r="H48" s="3">
-        <v>19257800</v>
+        <v>18846100</v>
       </c>
       <c r="I48" s="3">
-        <v>35989000</v>
+        <v>35219400</v>
       </c>
       <c r="J48" s="3">
-        <v>31698500</v>
+        <v>31020700</v>
       </c>
       <c r="K48" s="3">
         <v>43176300</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5717700</v>
+        <v>5595400</v>
       </c>
       <c r="E49" s="3">
-        <v>5143200</v>
+        <v>5033200</v>
       </c>
       <c r="F49" s="3">
-        <v>5732200</v>
+        <v>5609700</v>
       </c>
       <c r="G49" s="3">
-        <v>10739700</v>
+        <v>10510100</v>
       </c>
       <c r="H49" s="3">
-        <v>2085800</v>
+        <v>2041200</v>
       </c>
       <c r="I49" s="3">
-        <v>6301100</v>
+        <v>6166400</v>
       </c>
       <c r="J49" s="3">
-        <v>6186700</v>
+        <v>6054400</v>
       </c>
       <c r="K49" s="3">
         <v>9135800</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5115200</v>
+        <v>5005800</v>
       </c>
       <c r="E52" s="3">
-        <v>5079200</v>
+        <v>4970600</v>
       </c>
       <c r="F52" s="3">
-        <v>5687400</v>
+        <v>5565800</v>
       </c>
       <c r="G52" s="3">
-        <v>5810800</v>
+        <v>5686500</v>
       </c>
       <c r="H52" s="3">
-        <v>4624800</v>
+        <v>4526000</v>
       </c>
       <c r="I52" s="3">
-        <v>8995000</v>
+        <v>8802700</v>
       </c>
       <c r="J52" s="3">
-        <v>3985300</v>
+        <v>3900100</v>
       </c>
       <c r="K52" s="3">
         <v>3419300</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68192300</v>
+        <v>66734200</v>
       </c>
       <c r="E54" s="3">
-        <v>67159000</v>
+        <v>65723000</v>
       </c>
       <c r="F54" s="3">
-        <v>72759900</v>
+        <v>71204200</v>
       </c>
       <c r="G54" s="3">
-        <v>70905300</v>
+        <v>69389200</v>
       </c>
       <c r="H54" s="3">
-        <v>58218900</v>
+        <v>56974100</v>
       </c>
       <c r="I54" s="3">
-        <v>62323200</v>
+        <v>60990600</v>
       </c>
       <c r="J54" s="3">
-        <v>72840700</v>
+        <v>71283300</v>
       </c>
       <c r="K54" s="3">
         <v>83290000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2046,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3639700</v>
+        <v>3561900</v>
       </c>
       <c r="E57" s="3">
-        <v>3072000</v>
+        <v>3006300</v>
       </c>
       <c r="F57" s="3">
-        <v>2387600</v>
+        <v>2336500</v>
       </c>
       <c r="G57" s="3">
-        <v>2018500</v>
+        <v>1975300</v>
       </c>
       <c r="H57" s="3">
-        <v>2636700</v>
+        <v>2580300</v>
       </c>
       <c r="I57" s="3">
-        <v>2903700</v>
+        <v>2841600</v>
       </c>
       <c r="J57" s="3">
-        <v>4909800</v>
+        <v>4804800</v>
       </c>
       <c r="K57" s="3">
         <v>5583800</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4214200</v>
+        <v>4124100</v>
       </c>
       <c r="E58" s="3">
-        <v>4645000</v>
+        <v>4545700</v>
       </c>
       <c r="F58" s="3">
-        <v>4375800</v>
+        <v>4282200</v>
       </c>
       <c r="G58" s="3">
-        <v>4813300</v>
+        <v>4710400</v>
       </c>
       <c r="H58" s="3">
-        <v>1674000</v>
+        <v>1638200</v>
       </c>
       <c r="I58" s="3">
-        <v>4002100</v>
+        <v>3916600</v>
       </c>
       <c r="J58" s="3">
-        <v>4503700</v>
+        <v>4407400</v>
       </c>
       <c r="K58" s="3">
         <v>6113200</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6518800</v>
+        <v>6379400</v>
       </c>
       <c r="E59" s="3">
-        <v>5786100</v>
+        <v>5662400</v>
       </c>
       <c r="F59" s="3">
-        <v>9771400</v>
+        <v>9562500</v>
       </c>
       <c r="G59" s="3">
-        <v>23869200</v>
+        <v>23358900</v>
       </c>
       <c r="H59" s="3">
-        <v>7181900</v>
+        <v>7028300</v>
       </c>
       <c r="I59" s="3">
-        <v>18140300</v>
+        <v>17752500</v>
       </c>
       <c r="J59" s="3">
-        <v>5520200</v>
+        <v>5402200</v>
       </c>
       <c r="K59" s="3">
         <v>8379800</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14372700</v>
+        <v>14065400</v>
       </c>
       <c r="E60" s="3">
-        <v>13503100</v>
+        <v>13214400</v>
       </c>
       <c r="F60" s="3">
-        <v>16534800</v>
+        <v>16181200</v>
       </c>
       <c r="G60" s="3">
-        <v>16243000</v>
+        <v>15895700</v>
       </c>
       <c r="H60" s="3">
-        <v>11492500</v>
+        <v>11246800</v>
       </c>
       <c r="I60" s="3">
-        <v>15007700</v>
+        <v>14686800</v>
       </c>
       <c r="J60" s="3">
-        <v>14933700</v>
+        <v>14614400</v>
       </c>
       <c r="K60" s="3">
         <v>20076800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8926600</v>
+        <v>8735700</v>
       </c>
       <c r="E61" s="3">
-        <v>9798300</v>
+        <v>9588800</v>
       </c>
       <c r="F61" s="3">
-        <v>12281300</v>
+        <v>12018700</v>
       </c>
       <c r="G61" s="3">
-        <v>13487400</v>
+        <v>13199100</v>
       </c>
       <c r="H61" s="3">
-        <v>10028300</v>
+        <v>9813900</v>
       </c>
       <c r="I61" s="3">
-        <v>10856400</v>
+        <v>10624200</v>
       </c>
       <c r="J61" s="3">
-        <v>20246300</v>
+        <v>19813400</v>
       </c>
       <c r="K61" s="3">
         <v>21373900</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10207900</v>
+        <v>9989600</v>
       </c>
       <c r="E62" s="3">
-        <v>10127100</v>
+        <v>9910500</v>
       </c>
       <c r="F62" s="3">
-        <v>9037600</v>
+        <v>8844400</v>
       </c>
       <c r="G62" s="3">
-        <v>15441900</v>
+        <v>15111800</v>
       </c>
       <c r="H62" s="3">
-        <v>5109500</v>
+        <v>5000300</v>
       </c>
       <c r="I62" s="3">
-        <v>10253900</v>
+        <v>10034600</v>
       </c>
       <c r="J62" s="3">
-        <v>6837400</v>
+        <v>6691200</v>
       </c>
       <c r="K62" s="3">
         <v>10095900</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33828000</v>
+        <v>33104700</v>
       </c>
       <c r="E66" s="3">
-        <v>33731500</v>
+        <v>33010300</v>
       </c>
       <c r="F66" s="3">
-        <v>38127500</v>
+        <v>37312200</v>
       </c>
       <c r="G66" s="3">
-        <v>38890400</v>
+        <v>38058900</v>
       </c>
       <c r="H66" s="3">
-        <v>26873900</v>
+        <v>26299300</v>
       </c>
       <c r="I66" s="3">
-        <v>31797200</v>
+        <v>31117300</v>
       </c>
       <c r="J66" s="3">
-        <v>42881300</v>
+        <v>41964500</v>
       </c>
       <c r="K66" s="3">
         <v>55660900</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24467200</v>
+        <v>23944100</v>
       </c>
       <c r="E72" s="3">
-        <v>23824300</v>
+        <v>23314900</v>
       </c>
       <c r="F72" s="3">
-        <v>21923700</v>
+        <v>21454900</v>
       </c>
       <c r="G72" s="3">
-        <v>20424700</v>
+        <v>19988000</v>
       </c>
       <c r="H72" s="3">
-        <v>22244600</v>
+        <v>21768900</v>
       </c>
       <c r="I72" s="3">
-        <v>52973600</v>
+        <v>51841000</v>
       </c>
       <c r="J72" s="3">
-        <v>22911000</v>
+        <v>22421200</v>
       </c>
       <c r="K72" s="3">
         <v>22074700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34364300</v>
+        <v>33629500</v>
       </c>
       <c r="E76" s="3">
-        <v>33427400</v>
+        <v>32712700</v>
       </c>
       <c r="F76" s="3">
-        <v>34632500</v>
+        <v>33892000</v>
       </c>
       <c r="G76" s="3">
-        <v>32014900</v>
+        <v>31330300</v>
       </c>
       <c r="H76" s="3">
-        <v>31345000</v>
+        <v>30674800</v>
       </c>
       <c r="I76" s="3">
-        <v>30526000</v>
+        <v>29873300</v>
       </c>
       <c r="J76" s="3">
-        <v>29959400</v>
+        <v>29318800</v>
       </c>
       <c r="K76" s="3">
         <v>27629100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2594000</v>
+        <v>2538600</v>
       </c>
       <c r="E81" s="3">
-        <v>2347200</v>
+        <v>2297000</v>
       </c>
       <c r="F81" s="3">
-        <v>1916400</v>
+        <v>1875400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1593200</v>
+        <v>-1559200</v>
       </c>
       <c r="H81" s="3">
-        <v>1808600</v>
+        <v>1770000</v>
       </c>
       <c r="I81" s="3">
-        <v>218800</v>
+        <v>214100</v>
       </c>
       <c r="J81" s="3">
-        <v>2442600</v>
+        <v>2390300</v>
       </c>
       <c r="K81" s="3">
         <v>2574200</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2401100</v>
+        <v>2349700</v>
       </c>
       <c r="E83" s="3">
-        <v>2691700</v>
+        <v>2634100</v>
       </c>
       <c r="F83" s="3">
-        <v>2837500</v>
+        <v>2776800</v>
       </c>
       <c r="G83" s="3">
-        <v>3505100</v>
+        <v>3430200</v>
       </c>
       <c r="H83" s="3">
-        <v>2015100</v>
+        <v>1972000</v>
       </c>
       <c r="I83" s="3">
-        <v>1705400</v>
+        <v>1669000</v>
       </c>
       <c r="J83" s="3">
-        <v>2803900</v>
+        <v>2743900</v>
       </c>
       <c r="K83" s="3">
         <v>2428600</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5137600</v>
+        <v>5027700</v>
       </c>
       <c r="E89" s="3">
-        <v>5736700</v>
+        <v>5614100</v>
       </c>
       <c r="F89" s="3">
-        <v>4364500</v>
+        <v>4271200</v>
       </c>
       <c r="G89" s="3">
-        <v>5538100</v>
+        <v>5419700</v>
       </c>
       <c r="H89" s="3">
-        <v>3474800</v>
+        <v>3400500</v>
       </c>
       <c r="I89" s="3">
-        <v>3000200</v>
+        <v>2936100</v>
       </c>
       <c r="J89" s="3">
-        <v>7597000</v>
+        <v>7434600</v>
       </c>
       <c r="K89" s="3">
         <v>4836100</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2963,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2985600</v>
+        <v>-2921800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2580600</v>
+        <v>-2525400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2247300</v>
+        <v>-2199300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3355900</v>
+        <v>-3284100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2923900</v>
+        <v>-2861400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2235000</v>
+        <v>-2187200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3824900</v>
+        <v>-3743100</v>
       </c>
       <c r="K91" s="3">
         <v>-4169400</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1524800</v>
+        <v>-1492200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3129200</v>
+        <v>-3062300</v>
       </c>
       <c r="F94" s="3">
-        <v>438700</v>
+        <v>429300</v>
       </c>
       <c r="G94" s="3">
-        <v>-10053000</v>
+        <v>-9838100</v>
       </c>
       <c r="H94" s="3">
-        <v>1269000</v>
+        <v>1241800</v>
       </c>
       <c r="I94" s="3">
-        <v>348900</v>
+        <v>341500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4215300</v>
+        <v>-4125200</v>
       </c>
       <c r="K94" s="3">
         <v>-6225900</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3097,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-333200</v>
+        <v>-326100</v>
       </c>
       <c r="E96" s="3">
-        <v>-372500</v>
+        <v>-364500</v>
       </c>
       <c r="F96" s="3">
-        <v>-471200</v>
+        <v>-461200</v>
       </c>
       <c r="G96" s="3">
-        <v>-547500</v>
+        <v>-535800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1920800</v>
+        <v>-1879800</v>
       </c>
       <c r="I96" s="3">
-        <v>-527300</v>
+        <v>-516100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1062500</v>
+        <v>-1039800</v>
       </c>
       <c r="K96" s="3">
         <v>-1564700</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3401900</v>
+        <v>-3329100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2649000</v>
+        <v>-2592400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2303400</v>
+        <v>-2254200</v>
       </c>
       <c r="G100" s="3">
-        <v>1991500</v>
+        <v>1949000</v>
       </c>
       <c r="H100" s="3">
-        <v>-6118200</v>
+        <v>-5987400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1524800</v>
+        <v>-1492200</v>
       </c>
       <c r="J100" s="3">
-        <v>325400</v>
+        <v>318400</v>
       </c>
       <c r="K100" s="3">
         <v>-2938000</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-55000</v>
+        <v>-53800</v>
       </c>
       <c r="F101" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="G101" s="3">
-        <v>66200</v>
+        <v>64800</v>
       </c>
       <c r="H101" s="3">
-        <v>164900</v>
+        <v>161400</v>
       </c>
       <c r="I101" s="3">
-        <v>-20200</v>
+        <v>-19800</v>
       </c>
       <c r="J101" s="3">
-        <v>-87500</v>
+        <v>-85600</v>
       </c>
       <c r="K101" s="3">
         <v>-98600</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>207600</v>
+        <v>203100</v>
       </c>
       <c r="E102" s="3">
-        <v>-96500</v>
+        <v>-94400</v>
       </c>
       <c r="F102" s="3">
-        <v>2512100</v>
+        <v>2458400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2457200</v>
+        <v>-2404600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1209500</v>
+        <v>-1183600</v>
       </c>
       <c r="I102" s="3">
-        <v>1804200</v>
+        <v>1765600</v>
       </c>
       <c r="J102" s="3">
-        <v>3619500</v>
+        <v>3542100</v>
       </c>
       <c r="K102" s="3">
         <v>-4426400</v>
